--- a/Analyzed/try6/data_2006.xlsx
+++ b/Analyzed/try6/data_2006.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>51.25676437357827</v>
       </c>
       <c r="N2">
-        <v>175.812</v>
+        <v>455.84</v>
       </c>
       <c r="O2">
-        <v>962.47</v>
+        <v>-87.53</v>
       </c>
       <c r="P2">
-        <v>469.9378727999999</v>
+        <v>395.5368803726942</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2">
         <v>2</v>
@@ -589,10 +594,13 @@
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC2">
         <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>50.32524388293626</v>
       </c>
       <c r="N3">
-        <v>149.212</v>
+        <v>435.9040000000001</v>
       </c>
       <c r="O3">
-        <v>889.29</v>
+        <v>-110.71</v>
       </c>
       <c r="P3">
-        <v>473.4320615999999</v>
+        <v>399.6535110639522</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -662,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>4</v>
@@ -671,19 +679,22 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>53.16357084314431</v>
       </c>
       <c r="N4">
-        <v>208.208</v>
+        <v>475.8320000000001</v>
       </c>
       <c r="O4">
-        <v>912.58</v>
+        <v>-87.42</v>
       </c>
       <c r="P4">
-        <v>485.1827207999999</v>
+        <v>411.0974307656909</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -753,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -765,15 +776,18 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
@@ -820,13 +834,13 @@
         <v>59.70148706463991</v>
       </c>
       <c r="N5">
-        <v>186.088</v>
+        <v>517.72</v>
       </c>
       <c r="O5">
-        <v>902.33</v>
+        <v>-97.67</v>
       </c>
       <c r="P5">
-        <v>447.212772</v>
+        <v>373.137886337947</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,28 +858,31 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>60.6435512798977</v>
       </c>
       <c r="N6">
-        <v>218.428</v>
+        <v>460.4880000000001</v>
       </c>
       <c r="O6">
-        <v>828.64</v>
+        <v>-71.36</v>
       </c>
       <c r="P6">
-        <v>546.1297992</v>
+        <v>493.1395558098546</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,28 +952,31 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>4</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>57.82882926734852</v>
       </c>
       <c r="N7">
-        <v>242.5080000000001</v>
+        <v>530.4880000000001</v>
       </c>
       <c r="O7">
-        <v>1096.77</v>
+        <v>-103.23</v>
       </c>
       <c r="P7">
-        <v>437.1954047999999</v>
+        <v>346.8741356573695</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7">
         <v>5</v>
@@ -1048,6 +1068,9 @@
       </c>
       <c r="AC7">
         <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>61.75774315750323</v>
       </c>
       <c r="N8">
-        <v>203.476</v>
+        <v>410.76</v>
       </c>
       <c r="O8">
-        <v>912.16</v>
+        <v>-87.84</v>
       </c>
       <c r="P8">
-        <v>441.2381039999999</v>
+        <v>343.7781354901246</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,27 +1140,30 @@
         <v>5</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>68.70927029007782</v>
       </c>
       <c r="N9">
-        <v>188.58</v>
+        <v>555.1840000000001</v>
       </c>
       <c r="O9">
-        <v>1289.66</v>
+        <v>-160.34</v>
       </c>
       <c r="P9">
-        <v>351.8798112000001</v>
+        <v>252.5601676846943</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,28 +1234,31 @@
         <v>7</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC9">
         <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
